--- a/final.xlsx
+++ b/final.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1979,7 +1979,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4309,7 +4309,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4418,7 +4418,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5011,7 +5011,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -6509,7 +6509,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -7079,7 +7079,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -7499,7 +7499,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -7520,7 +7520,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -7614,7 +7614,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -7637,7 +7637,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -8293,7 +8293,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -8364,7 +8364,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -8497,7 +8497,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -8520,7 +8520,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -8775,7 +8775,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -8935,7 +8935,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -8981,7 +8981,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -9078,7 +9078,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
@@ -9145,7 +9145,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
@@ -9169,7 +9169,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -9256,7 +9256,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -9560,7 +9560,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E422" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E423" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -9731,7 +9731,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E431" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E436" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -10318,7 +10318,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -10341,7 +10341,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -10389,7 +10389,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E459" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E465" t="inlineStr">
         <is>
@@ -10624,7 +10624,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -10875,7 +10875,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E480" t="inlineStr">
         <is>
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -10994,7 +10994,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -11067,7 +11067,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E486" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -11225,7 +11225,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E493" t="inlineStr">
         <is>
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -11294,7 +11294,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E499" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E500" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E501" t="inlineStr">
         <is>
@@ -11456,7 +11456,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -11619,7 +11619,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -11691,7 +11691,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -11715,7 +11715,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E514" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E523" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -12069,7 +12069,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -12090,7 +12090,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -12200,7 +12200,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E544" t="inlineStr">
         <is>
@@ -12454,7 +12454,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -12476,7 +12476,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -12499,7 +12499,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -12542,7 +12542,7 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E549" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E551" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E552" t="inlineStr">
         <is>
@@ -12631,7 +12631,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         </is>
       </c>
       <c r="D556" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E559" t="inlineStr">
         <is>
@@ -12790,7 +12790,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         </is>
       </c>
       <c r="D562" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E565" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -13000,7 +13000,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="D575" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -13161,7 +13161,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -13206,7 +13206,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E580" t="inlineStr">
         <is>
@@ -13275,7 +13275,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -13341,7 +13341,7 @@
         </is>
       </c>
       <c r="D584" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
